--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -832,7 +832,7 @@
         <v>2017-6-15</v>
       </c>
       <c r="D23" t="str">
-        <v>2017-09-02</v>
+        <v>2017-07-02</v>
       </c>
       <c r="E23" t="str">
         <v>2017-08-02</v>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -835,7 +835,7 @@
         <v>2017-07-02</v>
       </c>
       <c r="E23" t="str">
-        <v>2017-08-02</v>
+        <v>2017-07-01</v>
       </c>
       <c r="F23">
         <v>22</v>
